--- a/design/Enum.Item.xlsx
+++ b/design/Enum.Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53174BF7-7B2B-411C-9825-E0564F525004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A064A4-74A6-4994-BA2F-BD92B7112DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemType" sheetId="3" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shoose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,9 @@
   <si>
     <t>지팡이</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoes</t>
   </si>
 </sst>
 </file>
@@ -480,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -491,26 +490,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -524,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0A29DB-9767-4564-B0C7-0A633CB072FC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,10 +539,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -556,18 +555,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -588,26 +587,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/design/Enum.Item.xlsx
+++ b/design/Enum.Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A064A4-74A6-4994-BA2F-BD92B7112DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A47FF-46DE-43CD-9116-D583B202EA18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="36000" yWindow="1125" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemType" sheetId="3" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>활</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>Shoes</t>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0A29DB-9767-4564-B0C7-0A633CB072FC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -555,7 +555,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -579,38 +579,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0199681E-6044-406A-872D-6C4A3AECB279}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/Enum.Item.xlsx
+++ b/design/Enum.Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4A47FF-46DE-43CD-9116-D583B202EA18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C993926-9F09-4321-89BC-319BF1D60C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="1125" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemType" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,13 @@
   </si>
   <si>
     <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>장신구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,13 +528,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0A29DB-9767-4564-B0C7-0A633CB072FC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -569,9 +579,18 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -579,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0199681E-6044-406A-872D-6C4A3AECB279}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/design/Enum.Item.xlsx
+++ b/design/Enum.Item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C993926-9F09-4321-89BC-319BF1D60C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F382A4-508E-4587-B916-81FABA81EB6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemType" sheetId="3" r:id="rId1"/>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305BED7D-AA52-4DB7-8FE2-A26BF7FDDFE8}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,27 +495,27 @@
     <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0A29DB-9767-4564-B0C7-0A633CB072FC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,51 +539,51 @@
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -596,35 +596,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0199681E-6044-406A-872D-6C4A3AECB279}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
